--- a/format/litigacion/temp/tmp_ab_prueba.xlsx
+++ b/format/litigacion/temp/tmp_ab_prueba.xlsx
@@ -13,6 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +24,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>10032018HJHJ9799</t>
+  </si>
+  <si>
+    <t>10X3201904253</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>1003  101824308</t>
+  </si>
+  <si>
+    <t>10032  0172532</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,60 +363,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A118"/>
+  <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1003201824308</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1003201902151</v>
+        <v>20032820827</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1003201641617</v>
+        <v>1003201902151</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1003201811283</v>
+        <v>1003201641617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1003201825408</v>
+        <v>1003201811283</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1003201904253</v>
+        <v>1003201825408</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1003201749297</v>
+      <c r="A8" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>1003201749297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1003201823935</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1003201729437</v>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -403,29 +439,19 @@
         <v>1003201745429</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1003201802914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1003201806852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1003201848863</v>
-      </c>
-    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1003201705662</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1003201724532</v>
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1003201832326</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -923,7 +949,48 @@
         <v>1006201919024</v>
       </c>
     </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/format/litigacion/temp/tmp_ab_prueba.xlsx
+++ b/format/litigacion/temp/tmp_ab_prueba.xlsx
@@ -29,22 +29,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>10032018HJHJ9799</t>
+    <t>10032019df04253</t>
   </si>
   <si>
-    <t>10X3201904253</t>
+    <t>10032df01729437</t>
   </si>
   <si>
-    <t>LUIS ENRIQUE</t>
+    <t>100320x1848863</t>
   </si>
   <si>
-    <t>1003  101824308</t>
+    <t>LUIS</t>
   </si>
   <si>
-    <t>10032  0172532</t>
+    <t>10032018D0151</t>
   </si>
   <si>
-    <t>d</t>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -365,23 +365,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" s="1">
+        <v>1003201824308</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>20032820827</v>
+        <v>1003201820827</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -395,8 +395,8 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
+      <c r="A5" s="1">
+        <v>1003201829799</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -411,7 +411,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -426,7 +426,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -439,14 +439,29 @@
         <v>1003201745429</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1003201802914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1003201806852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1003201705662</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
+      <c r="A18" s="1">
+        <v>1003201724532</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -476,7 +491,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1004201914535</v>
+        <v>1914535</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -511,7 +526,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1003201911124</v>
+        <v>1911124</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -645,8 +660,8 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>1007201821674</v>
+      <c r="A58" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -670,8 +685,8 @@
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>1003201850151</v>
+      <c r="A63" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
@@ -766,192 +781,197 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>1003201901684</v>
+        <v>1003202307553</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>1003201920497</v>
+        <v>1003201901684</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>1003201944813</v>
+        <v>1003201920497</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>1003201843080</v>
+        <v>1003201944813</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>1007201900048</v>
+        <v>1003201843080</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>1003201933778</v>
+        <v>1007201900048</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>1004201802922</v>
+        <v>1003201933778</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>1004201941843</v>
+        <v>1004201802922</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>1004201944504</v>
+        <v>1004201941843</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>1004201944895</v>
+        <v>1004201944504</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>1003201909700</v>
+        <v>1004201944895</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>1007201927147</v>
+        <v>1003201909700</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>1003201920399</v>
+        <v>1007201927147</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>1003201620213</v>
+        <v>1003201920399</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>1003201807352</v>
+        <v>1003201620213</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>1003201803789</v>
+        <v>1003201807352</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>1005201806931</v>
+        <v>100320183789</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>1005201903655</v>
+        <v>1005201806931</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>1005201731001</v>
+        <v>1005201903655</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>1003201911110</v>
+        <v>1005201731001</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>1003201905331</v>
+        <v>1003201911110</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>1003201838404</v>
+        <v>1003201905331</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>1003201932705</v>
+        <v>1003201838404</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>1007201945316</v>
+        <v>1003201932705</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>1005201938315</v>
+        <v>1007201945316</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>1003201945498</v>
+      <c r="A107" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>1004201925546</v>
+        <v>1003201945498</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>1005201920047</v>
+        <v>1004201925546</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>1005201820478</v>
+        <v>1005201920047</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>1003201829677</v>
+        <v>1005201820478</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>1003201800946</v>
+        <v>1003201829677</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>1003201807352</v>
+        <v>1003201800946</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>1003201803789</v>
+        <v>1003201807352</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>1003201736813</v>
+        <v>1003201803789</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>1003201916100</v>
+        <v>1003201736813</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>1003201827527</v>
+        <v>1003201916100</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
+        <v>1003201827527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>1006201919024</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>5</v>
+      <c r="A120" s="1">
+        <v>1003202238568</v>
       </c>
     </row>
   </sheetData>

--- a/format/litigacion/temp/tmp_ab_prueba.xlsx
+++ b/format/litigacion/temp/tmp_ab_prueba.xlsx
@@ -365,9 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -376,7 +374,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>1003201824308</v>
+        <v>1009202302675</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
